--- a/TestCases/TC_foodkick_login.xlsx
+++ b/TestCases/TC_foodkick_login.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssarker\Sources\gitlab-web\foodkick-api-testing\testcases\User\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssarker\Sources\github\QuantumUSA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Steps</t>
   </si>
@@ -222,21 +222,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expected </t>
-  </si>
-  <si>
-    <t>loginuser@freshdirect.com</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>Valid Login</t>
-  </si>
-  <si>
-    <t>testing2</t>
-  </si>
-  <si>
-    <t>Invalid Login</t>
   </si>
   <si>
     <t>Popup showing Message</t>
@@ -767,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -900,7 +885,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>1</v>
@@ -1030,13 +1015,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1045,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>56</v>
@@ -1053,7 +1038,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,12 +1081,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,13 +1094,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>56</v>
@@ -1126,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,20 +1122,20 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,18 +1250,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,32 +1275,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestCases/TC_foodkick_login.xlsx
+++ b/TestCases/TC_foodkick_login.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Steps</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Password Inputed properly</t>
+  </si>
+  <si>
+    <t>zxczxczxc</t>
   </si>
 </sst>
 </file>
@@ -752,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1281,11 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1287,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
